--- a/dataconfig/interface.xlsx
+++ b/dataconfig/interface.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D448AC-799B-4836-A17A-53D30195C548}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4641D00-9778-4489-8AED-FF0657C96827}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,37 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>fromsys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scmpcapp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plat06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plat07</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>请求url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据所属字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://scmbase.loongjoy.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +136,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,15 +169,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,59 +458,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="12.4140625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="10" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0F3F6375-C393-4F79-8D33-9D5E89A82D1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>